--- a/biology/Histoire de la zoologie et de la botanique/Hisayoshi_Takeda/Hisayoshi_Takeda.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hisayoshi_Takeda/Hisayoshi_Takeda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hisayoshi Takeda (武田 久吉, Takeda Hisayoshi?), 2 mars 1883 – 7 juin 1972, est un botaniste, phycologue, traducteur et explorateur japonais, fils de Takeda Kane et Ernest Satow, le fameux diplomate britannique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après son diplôme d'études secondaires, Takeda fonde la « Société japonaise d'histoire naturelle » avec quelques camarades et en 1905 est membre fondateur du « Club Alpin du Japon » étant un alpiniste passionné et explorateur botanique. Entre 1910 et 1916, Takeda étudie la botanique en Angleterre, d'abord à Kew puis à Birmingham. À son retour au Japon, il suit une formation académique aux universités de Kyoto, Kyushu et de Hokkaido.
-Il est connu pour la campagne qu'il a entreprise pour préserver les terres d'Oze qui sont de nos jours le parc national d'Oze[1].
+Il est connu pour la campagne qu'il a entreprise pour préserver les terres d'Oze qui sont de nos jours le parc national d'Oze.
 </t>
         </is>
       </c>
@@ -543,28 +557,133 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1910. New or noteworthy plants. Gardeners Chronicle 48 : 366 fig. 153. Réimprimé en 1913 : Feddes Repert. 12, 319-320
-Comme traducteur
-Okabe, M. 1940. Investigation of the medicinal plants found on the Palau islands, their virtues and popular remedies. Bulletin of Tropical Industry, Palau 5 Tokyo (traduction Hisayoshi Takeda, décembre 1952)
-Ouvrages
-1938. Alpine flowers of Japan, descriptions of one hundred select species together with cultural methods. Ed. The Sanseido Co. Ltd. Tokyo. xiii, 31, [1] 11 pp.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1910. New or noteworthy plants. Gardeners Chronicle 48 : 366 fig. 153. Réimprimé en 1913 : Feddes Repert. 12, 319-320</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hisayoshi_Takeda</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hisayoshi_Takeda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comme traducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Okabe, M. 1940. Investigation of the medicinal plants found on the Palau islands, their virtues and popular remedies. Bulletin of Tropical Industry, Palau 5 Tokyo (traduction Hisayoshi Takeda, décembre 1952)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hisayoshi_Takeda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hisayoshi_Takeda</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1938. Alpine flowers of Japan, descriptions of one hundred select species together with cultural methods. Ed. The Sanseido Co. Ltd. Tokyo. xiii, 31,  11 pp.
 1959. Alpine flora of Japan in colour (títre en japonais et anglais; texte en japonais et nomenclature en latín). Ed. Hoikusha, Osaka. 109 pp. (2e ed. en 1960)
 1971. Robō no sekibutsu (folclore, temas religiosos y culturales). Ed. Dai Ichi Hōki Shuppan, Tokio. 257 pp.
 1971. Meiji no yamatabi (plantas de montaña). Ed. Sōbunsha. Tokio. 276 pp.
-1975. Alpine Flora of Japan in Colours. Vol. II 2. Ed. Japan Hoikuska Publ. Co. 118 pp. + 28 illust.
-Éponymes
-(Asteraceae) Senecio takedanus Kitam.[2]
-(Asteraceae) Tephroseris takedana (Kitam.) Holub[3]
-(Campanulaceae) Adenophora takedai Makino[4]
-(Dipteridaceae) Phymatodes takedai Nakai[5]
-(Gentianaceae) Gentianella takedai (Kitag.) Satake[6]
-(Poaceae) Festuca takedana Ohwi[7]
-(Polypodiaceae) Microsorum takedai (Nakai) H.Ito[8]
-(Polypodiaceae) Polypodium takedai (Nakai) C.Chr.[9]
-(Primulaceae) Primula takedana Tatew.[10]
-(Urticaceae) Urtica takedana Ohwi[11]
+1975. Alpine Flora of Japan in Colours. Vol. II 2. Ed. Japan Hoikuska Publ. Co. 118 pp. + 28 illust.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hisayoshi_Takeda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hisayoshi_Takeda</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éponymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+(Asteraceae) Senecio takedanus Kitam.
+(Asteraceae) Tephroseris takedana (Kitam.) Holub
+(Campanulaceae) Adenophora takedai Makino
+(Dipteridaceae) Phymatodes takedai Nakai
+(Gentianaceae) Gentianella takedai (Kitag.) Satake
+(Poaceae) Festuca takedana Ohwi
+(Polypodiaceae) Microsorum takedai (Nakai) H.Ito
+(Polypodiaceae) Polypodium takedai (Nakai) C.Chr.
+(Primulaceae) Primula takedana Tatew.
+(Urticaceae) Urtica takedana Ohwi
 </t>
         </is>
       </c>
